--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>pub_date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>2018-06-28</t>
+  </si>
+  <si>
+    <t>https://patents.justia.com/inventor/chun-fu-yeh</t>
   </si>
 </sst>
 </file>
@@ -425,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,6 +532,9 @@
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
